--- a/Lab_2/Results.xlsx
+++ b/Lab_2/Results.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucadipietro/Desktop/UNI/Erasmus/EHC/EHCLab/Lab_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C9B573-4B32-AC4F-A75E-A5EB504F0FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A10CADA-4F5B-484B-BEAC-990DDA82DB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{2564389F-87A7-C546-A937-A546861AC638}"/>
+    <workbookView xWindow="1380" yWindow="1000" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{2564389F-87A7-C546-A937-A546861AC638}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>% Time</t>
   </si>
@@ -144,19 +144,22 @@
     <t>-O3 -fopenmp -DNUM_THREADS=2</t>
   </si>
   <si>
-    <t>-O3 -fopenmp -DNUM_THREADS=3</t>
-  </si>
-  <si>
     <t>-O3 -fopenmp -DNUM_THREADS=4</t>
   </si>
   <si>
-    <t>-O3 -fopenmp -DNUM_THREADS=5</t>
-  </si>
-  <si>
     <t>-O3 -fopenmp -DNUM_THREADS=6</t>
   </si>
   <si>
-    <t>-O3 -fopenmp -DNUM_THREADS=7</t>
+    <t>-O3 -fopenmp -DNUM_THREADS=8</t>
+  </si>
+  <si>
+    <t>-O3 -fopenmp -DNUM_THREADS=10</t>
+  </si>
+  <si>
+    <t>-O3 -fopenmp -DNUM_THREADS=12</t>
+  </si>
+  <si>
+    <t>J12</t>
   </si>
 </sst>
 </file>
@@ -210,18 +213,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -276,15 +298,15 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{18DDB6DE-7FE5-0F47-B5E4-9017F0FA3579}" name="Type of implementation"/>
     <tableColumn id="2" xr3:uid="{78E202D9-F785-0E4E-A806-517C2188018A}" name="Option"/>
-    <tableColumn id="3" xr3:uid="{569D21FA-B9D8-B24E-BA5B-1CB643476E2D}" name="GNU gcc compiler flags" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{569D21FA-B9D8-B24E-BA5B-1CB643476E2D}" name="GNU gcc compiler flags" dataDxfId="6">
       <calculatedColumnFormula array="1">-O3 -fopenmp -DNUM_THREADS=1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{207A515F-9CCE-1249-9E15-B73AEA611D20}" name="Execution time (s)"/>
-    <tableColumn id="5" xr3:uid="{430DC1A5-5C8F-0646-8530-69C3F8D17DEE}" name="Power dissipation (W)"/>
-    <tableColumn id="6" xr3:uid="{B75922A2-CD1B-EA46-8B17-09CA57BFD89B}" name="Energy consumption (J)"/>
-    <tableColumn id="7" xr3:uid="{AEF873A3-E1ED-F046-9CAD-343DD4611752}" name="Speedup"/>
-    <tableColumn id="8" xr3:uid="{F7466677-07C2-7E45-A619-2BEE9C70DF56}" name="Power dissipation reduction"/>
-    <tableColumn id="9" xr3:uid="{3B63588A-BD94-7445-A46A-F60CC21393D2}" name="Energy consumption reduction"/>
+    <tableColumn id="4" xr3:uid="{207A515F-9CCE-1249-9E15-B73AEA611D20}" name="Execution time (s)" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{430DC1A5-5C8F-0646-8530-69C3F8D17DEE}" name="Power dissipation (W)" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{B75922A2-CD1B-EA46-8B17-09CA57BFD89B}" name="Energy consumption (J)" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{AEF873A3-E1ED-F046-9CAD-343DD4611752}" name="Speedup" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{F7466677-07C2-7E45-A619-2BEE9C70DF56}" name="Power dissipation reduction" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{3B63588A-BD94-7445-A46A-F60CC21393D2}" name="Energy consumption reduction" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -609,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E414AA95-4FEF-8949-B210-7EDA130F13DE}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1075,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75507AA2-56E6-4346-A241-F7496CA14363}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1131,6 +1153,24 @@
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="D2" s="4">
+        <v>9.82</v>
+      </c>
+      <c r="E2" s="4">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="F2" s="4">
+        <v>160.46</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1142,6 +1182,27 @@
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D3" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="E3" s="4">
+        <v>23.04</v>
+      </c>
+      <c r="F3" s="4">
+        <v>134.9</v>
+      </c>
+      <c r="G3" s="4">
+        <f>$D$2/Tabella3[[#This Row],[Execution time (s)]]</f>
+        <v>1.6786324786324789</v>
+      </c>
+      <c r="H3" s="4">
+        <f>100*(1-$E$2/Tabella3[[#This Row],[Power dissipation (W)]])</f>
+        <v>29.123263888888896</v>
+      </c>
+      <c r="I3" s="4">
+        <f>100*(1-$F$2/Tabella3[[#This Row],[Energy consumption (J)]])</f>
+        <v>-18.947368421052623</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1153,6 +1214,27 @@
       <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D4" s="4">
+        <v>3.26</v>
+      </c>
+      <c r="E4" s="4">
+        <v>29.66</v>
+      </c>
+      <c r="F4" s="4">
+        <v>96.62</v>
+      </c>
+      <c r="G4" s="4">
+        <f>$D$2/Tabella3[[#This Row],[Execution time (s)]]</f>
+        <v>3.0122699386503071</v>
+      </c>
+      <c r="H4" s="4">
+        <f>100*(1-$E$2/Tabella3[[#This Row],[Power dissipation (W)]])</f>
+        <v>44.942683749157119</v>
+      </c>
+      <c r="I4" s="4">
+        <f>100*(1-$F$2/Tabella3[[#This Row],[Energy consumption (J)]])</f>
+        <v>-66.073276754295179</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1164,6 +1246,27 @@
       <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="D5" s="4">
+        <v>3.12</v>
+      </c>
+      <c r="E5" s="4">
+        <v>31.96</v>
+      </c>
+      <c r="F5" s="4">
+        <v>99.57</v>
+      </c>
+      <c r="G5" s="4">
+        <f>$D$2/Tabella3[[#This Row],[Execution time (s)]]</f>
+        <v>3.1474358974358974</v>
+      </c>
+      <c r="H5" s="4">
+        <f>100*(1-$E$2/Tabella3[[#This Row],[Power dissipation (W)]])</f>
+        <v>48.904881101376731</v>
+      </c>
+      <c r="I5" s="4">
+        <f>100*(1-$F$2/Tabella3[[#This Row],[Energy consumption (J)]])</f>
+        <v>-61.152957718188226</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1175,6 +1278,27 @@
       <c r="C6" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="D6" s="4">
+        <v>3.24</v>
+      </c>
+      <c r="E6" s="4">
+        <v>32.64</v>
+      </c>
+      <c r="F6" s="4">
+        <v>105.91</v>
+      </c>
+      <c r="G6" s="4">
+        <f>$D$2/Tabella3[[#This Row],[Execution time (s)]]</f>
+        <v>3.0308641975308639</v>
+      </c>
+      <c r="H6" s="4">
+        <f>100*(1-$E$2/Tabella3[[#This Row],[Power dissipation (W)]])</f>
+        <v>49.969362745098046</v>
+      </c>
+      <c r="I6" s="4">
+        <f>100*(1-$F$2/Tabella3[[#This Row],[Energy consumption (J)]])</f>
+        <v>-51.505995656689649</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1186,16 +1310,58 @@
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D7" s="4">
+        <v>3.18</v>
+      </c>
+      <c r="E7" s="4">
+        <v>33.15</v>
+      </c>
+      <c r="F7" s="4">
+        <v>105.56</v>
+      </c>
+      <c r="G7" s="4">
+        <f>$D$2/Tabella3[[#This Row],[Execution time (s)]]</f>
+        <v>3.0880503144654088</v>
+      </c>
+      <c r="H7" s="4">
+        <f>100*(1-$E$2/Tabella3[[#This Row],[Power dissipation (W)]])</f>
+        <v>50.739064856711913</v>
+      </c>
+      <c r="I7" s="4">
+        <f>100*(1-$F$2/Tabella3[[#This Row],[Energy consumption (J)]])</f>
+        <v>-52.008336491095108</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>33.07</v>
+      </c>
+      <c r="F8" s="4">
+        <v>105.78</v>
+      </c>
+      <c r="G8" s="4">
+        <f>$D$2/Tabella3[[#This Row],[Execution time (s)]]</f>
+        <v>3.0687500000000001</v>
+      </c>
+      <c r="H8" s="4">
+        <f>100*(1-$E$2/Tabella3[[#This Row],[Power dissipation (W)]])</f>
+        <v>50.619897187783501</v>
+      </c>
+      <c r="I8" s="4">
+        <f>100*(1-$F$2/Tabella3[[#This Row],[Energy consumption (J)]])</f>
+        <v>-51.692191340518058</v>
       </c>
     </row>
   </sheetData>
